--- a/Docs/MoSCoW_V2.xlsx
+++ b/Docs/MoSCoW_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\OneDrive\School Radius\Leerjaar2\P5\Project\Barroc-it-groep5\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0DBD88-8D3A-464C-A4CF-D099613D99B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA21948-3435-4E27-8D7D-148C248F822D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{A7047E63-E707-41DB-BD9C-02B0ADFFEBD5}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>zowel sales als financien mogen beide "Creditworthy" aanpassen</t>
   </si>
   <si>
-    <t>Elke afdeling kan de afdelingspecefieke gegevens aanpassen</t>
-  </si>
-  <si>
     <t>Bij het verwijderen van een klant wordt gecontroleerd of de klant nog schulden heeft, zo ja kan de klant nog niet worden verwijderd.</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Sales heeft een lijst waarmee ze kunnen laten weten aan andere afdelingen dat een klant gebeld is.</t>
+  </si>
+  <si>
+    <t>Elke afdeling kan alleen de gegevens aanpassen volgens de tabel die in eerste instantie zijn aangegeven.</t>
   </si>
 </sst>
 </file>
@@ -864,7 +864,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
@@ -906,7 +906,7 @@
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
@@ -915,7 +915,7 @@
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
@@ -924,7 +924,7 @@
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -933,7 +933,7 @@
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -942,7 +942,7 @@
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -951,7 +951,7 @@
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
@@ -960,7 +960,7 @@
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -969,7 +969,7 @@
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -978,7 +978,7 @@
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -996,7 +996,7 @@
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="30"/>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="30"/>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="36"/>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="36"/>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="13"/>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="13"/>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="34"/>
       <c r="C34" s="13"/>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="13"/>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="21"/>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="36"/>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="41" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="29"/>
